--- a/xlsx/宪法_intext.xlsx
+++ b/xlsx/宪法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>宪法</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>政治實體</t>
+    <t>政治实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%B7%9E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>印度英語</t>
+    <t>印度英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>春秋時期</t>
+    <t>春秋时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E4%B8%98%E6%98%8E</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>國語 (書)</t>
+    <t>国语 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>香港特別行政區基本法</t>
+    <t>香港特别行政区基本法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E4%B8%89%E6%B3%95</t>
@@ -179,19 +176,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>德國基本法</t>
+    <t>德国基本法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%AD%A6</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%88%B6%E9%95%B7</t>
   </si>
   <si>
-    <t>家父長</t>
+    <t>家父长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%87%AA%E7%94%B1</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B3%A6%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>天賦人權</t>
+    <t>天赋人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6%E5%BA%A6</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2%E5%AF%A9%E6%9F%A5</t>
   </si>
   <si>
-    <t>違憲審查</t>
+    <t>违宪审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E5%AD%99</t>
@@ -263,9 +260,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95%E5%AD%A6</t>
   </si>
   <si>
@@ -287,27 +281,24 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%88%90%E6%96%87%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>不成文憲法</t>
+    <t>不成文宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>英國權利法案</t>
+    <t>英国权利法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
@@ -341,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8B%B1%E8%81%AF%E5%90%88%E8%81%B2%E6%98%8E</t>
   </si>
   <si>
-    <t>中英聯合聲明</t>
+    <t>中英联合声明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%AE%AA%E6%B3%95</t>
@@ -359,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>台灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國憲法</t>
+    <t>中华民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86</t>
@@ -377,25 +368,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E9%8A%85%E8%A1%A8%E6%B3%95</t>
   </si>
   <si>
-    <t>十二銅表法</t>
+    <t>十二铜表法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E6%83%AF%E6%B3%95</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -437,13 +428,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>香港特別行政區</t>
+    <t>香港特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9C%81%E8%87%AA%E6%B2%BB</t>
   </si>
   <si>
-    <t>聯省自治</t>
+    <t>联省自治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E6%94%BF%E5%8F%B8</t>
@@ -455,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E5%BE%8B%E6%94%BF%E5%8F%B8%E5%8F%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>香港特別行政區律政司司長</t>
+    <t>香港特别行政区律政司司长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E6%84%9B%E8%A9%A9</t>
   </si>
   <si>
-    <t>梁愛詩</t>
+    <t>梁爱诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A</t>
@@ -473,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>辭海</t>
+    <t>辞海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%BE%AD%E6%9B%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>上海辭書出版社</t>
+    <t>上海辞书出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF</t>
@@ -491,25 +482,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%86%B2</t>
   </si>
   <si>
-    <t>行憲</t>
+    <t>行宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>憲法法院</t>
+    <t>宪法法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E6%86%B2%E4%BB%A4</t>
   </si>
   <si>
-    <t>宗座憲令</t>
+    <t>宗座宪令</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constitutional_economics</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E4%B8%B4%E6%97%B6%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87%E5%A4%A7%E7%BA%B2</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%87%A8%E6%99%82%E7%B4%84%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國臨時約法</t>
+    <t>中华民国临时约法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E7%BA%A6%E6%B3%95</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%94%BF%E6%B2%BB%E5%8D%94%E5%95%86%E6%9C%83%E8%AD%B0%E5%85%B1%E5%90%8C%E7%B6%B1%E9%A0%98</t>
   </si>
   <si>
-    <t>中國人民政治協商會議共同綱領</t>
+    <t>中国人民政治协商会议共同纲领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -635,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constitution_of_the_Roman_Republic</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -689,19 +680,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -719,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -743,25 +731,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -809,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -821,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -899,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -911,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -953,19 +941,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -1019,19 +1007,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -1043,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -1133,25 +1121,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -1163,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -1211,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -1241,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -1307,9 +1295,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
   </si>
   <si>
@@ -1331,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -1343,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -1367,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -1385,19 +1370,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -1415,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -1427,25 +1412,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1505,19 +1490,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -1541,19 +1526,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1577,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1595,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -1607,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1619,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2381,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -2422,10 +2407,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2480,10 +2465,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2509,10 +2494,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2538,10 +2523,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2567,10 +2552,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2596,10 +2581,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2625,10 +2610,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2654,10 +2639,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>16</v>
@@ -2683,10 +2668,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2712,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2741,10 +2726,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2770,10 +2755,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2799,10 +2784,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2828,10 +2813,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2857,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2886,10 +2871,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2915,10 +2900,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2944,10 +2929,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2973,10 +2958,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3002,10 +2987,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3031,10 +3016,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3060,10 +3045,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3089,10 +3074,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3118,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -3147,10 +3132,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3176,10 +3161,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3205,10 +3190,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
         <v>14</v>
@@ -3234,10 +3219,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3263,10 +3248,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3292,10 +3277,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3321,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>9</v>
@@ -3350,10 +3335,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3379,10 +3364,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>10</v>
@@ -3408,10 +3393,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3437,10 +3422,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
         <v>20</v>
@@ -3466,10 +3451,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -3495,10 +3480,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>12</v>
@@ -3524,10 +3509,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3553,10 +3538,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3582,10 +3567,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3611,10 +3596,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3640,10 +3625,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3669,10 +3654,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3698,10 +3683,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3727,10 +3712,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3756,10 +3741,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3785,10 +3770,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3814,10 +3799,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3843,10 +3828,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3872,10 +3857,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -3901,10 +3886,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3930,10 +3915,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3959,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>7</v>
@@ -3988,10 +3973,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4017,10 +4002,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4046,10 +4031,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4075,10 +4060,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4104,10 +4089,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
         <v>47</v>
-      </c>
-      <c r="F74" t="s">
-        <v>48</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4133,10 +4118,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4162,10 +4147,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4191,10 +4176,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4220,10 +4205,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4249,10 +4234,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4278,10 +4263,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4307,10 +4292,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4336,10 +4321,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4365,10 +4350,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4394,10 +4379,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4423,10 +4408,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4452,10 +4437,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4481,10 +4466,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4510,10 +4495,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4539,10 +4524,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4568,10 +4553,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4597,10 +4582,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -4626,10 +4611,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4655,10 +4640,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4684,10 +4669,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4713,10 +4698,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -4742,10 +4727,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4771,10 +4756,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4800,10 +4785,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4829,10 +4814,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4858,10 +4843,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4887,10 +4872,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4916,10 +4901,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4945,10 +4930,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4974,10 +4959,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>51</v>
@@ -5003,10 +4988,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5032,10 +5017,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5061,10 +5046,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5090,10 +5075,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5119,10 +5104,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5148,10 +5133,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5177,10 +5162,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5206,10 +5191,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5235,10 +5220,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5264,10 +5249,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>7</v>
@@ -5293,10 +5278,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5322,10 +5307,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>93</v>
@@ -5351,10 +5336,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5380,10 +5365,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5409,10 +5394,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5438,10 +5423,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5467,10 +5452,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5496,10 +5481,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5525,10 +5510,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5554,10 +5539,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5583,10 +5568,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5612,10 +5597,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5641,10 +5626,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5670,10 +5655,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5699,10 +5684,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5728,10 +5713,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5757,10 +5742,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>5</v>
@@ -5786,10 +5771,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5815,10 +5800,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5844,10 +5829,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5873,10 +5858,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5902,10 +5887,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5931,10 +5916,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5960,10 +5945,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5989,10 +5974,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6018,10 +6003,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6047,10 +6032,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6076,10 +6061,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6105,10 +6090,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6134,10 +6119,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6163,10 +6148,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6192,10 +6177,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6221,10 +6206,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6250,10 +6235,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6279,10 +6264,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6308,10 +6293,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6337,10 +6322,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6366,10 +6351,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6395,10 +6380,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6424,10 +6409,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6453,10 +6438,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6482,10 +6467,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6511,10 +6496,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6540,10 +6525,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6569,10 +6554,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6598,10 +6583,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6627,10 +6612,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6656,10 +6641,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6685,10 +6670,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6714,10 +6699,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6743,10 +6728,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6772,10 +6757,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6801,10 +6786,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6830,10 +6815,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6859,10 +6844,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6888,10 +6873,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6917,10 +6902,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6946,10 +6931,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -6975,10 +6960,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7004,10 +6989,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7033,10 +7018,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7062,10 +7047,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7091,10 +7076,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -7120,10 +7105,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7149,10 +7134,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7178,10 +7163,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7207,10 +7192,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7236,10 +7221,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7265,10 +7250,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7294,10 +7279,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>6</v>
@@ -7323,10 +7308,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7352,10 +7337,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7381,10 +7366,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7410,10 +7395,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7439,10 +7424,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7468,10 +7453,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>8</v>
@@ -7497,10 +7482,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7526,10 +7511,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7555,10 +7540,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7584,10 +7569,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7613,10 +7598,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F195" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7642,10 +7627,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7671,10 +7656,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7700,10 +7685,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7729,10 +7714,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7758,10 +7743,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7787,10 +7772,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7816,10 +7801,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7845,10 +7830,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7874,10 +7859,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7903,10 +7888,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7932,10 +7917,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7961,10 +7946,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7990,10 +7975,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8019,10 +8004,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8048,10 +8033,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8077,10 +8062,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8106,10 +8091,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8135,10 +8120,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8164,10 +8149,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8193,10 +8178,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8222,10 +8207,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8251,10 +8236,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8280,10 +8265,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8309,10 +8294,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8338,10 +8323,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>171</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8367,10 +8352,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8396,10 +8381,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>12</v>
@@ -8425,10 +8410,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8454,10 +8439,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8483,10 +8468,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8512,10 +8497,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8541,10 +8526,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8570,10 +8555,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8599,10 +8584,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8628,10 +8613,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8657,10 +8642,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8686,10 +8671,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8715,10 +8700,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8744,10 +8729,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8773,10 +8758,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8802,10 +8787,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8831,10 +8816,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8860,10 +8845,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8889,10 +8874,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8918,10 +8903,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>7</v>
@@ -8947,10 +8932,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8976,10 +8961,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9005,10 +8990,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9034,10 +9019,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9063,10 +9048,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9092,10 +9077,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9121,10 +9106,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9150,10 +9135,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9179,10 +9164,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9208,10 +9193,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9237,10 +9222,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9266,10 +9251,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9295,10 +9280,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9324,10 +9309,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9353,10 +9338,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9382,10 +9367,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9411,10 +9396,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9440,10 +9425,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9469,10 +9454,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9498,10 +9483,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9527,10 +9512,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9556,10 +9541,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9585,10 +9570,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9614,10 +9599,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F264" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9643,10 +9628,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9672,10 +9657,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9701,10 +9686,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9730,10 +9715,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -9759,10 +9744,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9788,10 +9773,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9817,10 +9802,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -9846,10 +9831,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9875,10 +9860,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
